--- a/pandas/4_read_write_to_excel/stock_data.xlsx
+++ b/pandas/4_read_write_to_excel/stock_data.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>eps</t>
   </si>
   <si>
-    <t>pe</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -40,6 +37,36 @@
   </si>
   <si>
     <t>MSFT</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>larry page</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>bill gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIL </t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t>mukesh ambani</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>ratan tata</t>
   </si>
 </sst>
 </file>
@@ -881,68 +908,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>27.82</v>
       </c>
       <c r="C2">
-        <v>30.37</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>845</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>4.6100000000000003</v>
       </c>
       <c r="C3">
-        <v>14.26</v>
+        <v>484</v>
       </c>
       <c r="D3">
         <v>65</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2.12</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>30.97</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>1023</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5.6</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
